--- a/names1.xlsx
+++ b/names1.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaden's Laptop\Documents\GitHub\KadenFranklin.github.io\sentiment_analyzer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4382691E-CB34-4E06-889C-029284CABE79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4420CA63-5496-4226-8F90-51FC9149E817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="225" windowWidth="10200" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="0" windowWidth="10200" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="648">
   <si>
     <t>Local Names</t>
   </si>
@@ -94,9 +93,6 @@
     <t>Atama-Atama</t>
   </si>
   <si>
-    <t>Atama</t>
-  </si>
-  <si>
     <t>Ataso</t>
   </si>
   <si>
@@ -217,9 +213,6 @@
     <t>Cibutama</t>
   </si>
   <si>
-    <t>Cimpanga</t>
-  </si>
-  <si>
     <t>Ciswa-bantu</t>
   </si>
   <si>
@@ -229,48 +222,15 @@
     <t>Djeke</t>
   </si>
   <si>
-    <t>Djoko Deli</t>
-  </si>
-  <si>
-    <t>Ebeni</t>
-  </si>
-  <si>
-    <t>Ebukla-Buka</t>
-  </si>
-  <si>
-    <t>Efanja</t>
-  </si>
-  <si>
-    <t>Ekanda</t>
-  </si>
-  <si>
-    <t>Ekanga-kanga</t>
-  </si>
-  <si>
-    <t>Ekatnkoi</t>
-  </si>
-  <si>
-    <t>Ekuma</t>
-  </si>
-  <si>
-    <t>Eminimbi</t>
-  </si>
-  <si>
     <t>Engalala</t>
   </si>
   <si>
     <t>Etumba Mbilo</t>
   </si>
   <si>
-    <t>Ewa Olefe</t>
-  </si>
-  <si>
     <t>Fasa ou Nkosa Nkosa</t>
   </si>
   <si>
-    <t>Fazzari</t>
-  </si>
-  <si>
     <t>Fimbo Mingi</t>
   </si>
   <si>
@@ -280,9 +240,6 @@
     <t>Guruguru</t>
   </si>
   <si>
-    <t>Hela</t>
-  </si>
-  <si>
     <t>Hoy na Gola</t>
   </si>
   <si>
@@ -532,9 +489,6 @@
     <t>Matala-Tala</t>
   </si>
   <si>
-    <t>Matala-Tamba</t>
-  </si>
-  <si>
     <t>Matcho Kali</t>
   </si>
   <si>
@@ -544,9 +498,6 @@
     <t>Mayala</t>
   </si>
   <si>
-    <t>Mbavu Muene</t>
-  </si>
-  <si>
     <t>Mbavu Nguvu</t>
   </si>
   <si>
@@ -586,9 +537,6 @@
     <t>Mondele na Mbila</t>
   </si>
   <si>
-    <t>Mondele na Ngolo</t>
-  </si>
-  <si>
     <t>Monganga na Mabele</t>
   </si>
   <si>
@@ -613,9 +561,6 @@
     <t>Mundele Mbisi</t>
   </si>
   <si>
-    <t>Mundele Mbwa Ngolo</t>
-  </si>
-  <si>
     <t>Mundele Nioka</t>
   </si>
   <si>
@@ -685,18 +630,12 @@
     <t>Nialakowomubu</t>
   </si>
   <si>
-    <t>Nkake</t>
-  </si>
-  <si>
     <t>Nkangobeko</t>
   </si>
   <si>
     <t>Nkoso</t>
   </si>
   <si>
-    <t>Nkoyi</t>
-  </si>
-  <si>
     <t>Nsoni Mingi</t>
   </si>
   <si>
@@ -1319,14 +1258,733 @@
   </si>
   <si>
     <t>T.Nicolas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Whipping </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baringa </t>
+  </si>
+  <si>
+    <t>G. Dineur</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wild cat</t>
+  </si>
+  <si>
+    <t>F. Van Nimmen, J. Van Uden</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To hide small scar </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R. Bearts</t>
+  </si>
+  <si>
+    <t>A. Demunster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cimpanga </t>
+  </si>
+  <si>
+    <t>Bull</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> He who loves people</t>
+  </si>
+  <si>
+    <t>A. Lippens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handsome </t>
+  </si>
+  <si>
+    <t>Ebeniq</t>
+  </si>
+  <si>
+    <t>Ebuka-Buka</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ekonda, Équateur</t>
+  </si>
+  <si>
+    <t>_+</t>
+  </si>
+  <si>
+    <t>Djoko deli</t>
+  </si>
+  <si>
+    <t>Breaker of things, into pieces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Efanja </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ekanda </t>
+  </si>
+  <si>
+    <t xml:space="preserve">He who disperses people </t>
+  </si>
+  <si>
+    <t>Ekonda, Équateur</t>
+  </si>
+  <si>
+    <t>Grenfell</t>
+  </si>
+  <si>
+    <t>Bolobo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ekanga-kanga </t>
+  </si>
+  <si>
+    <t>Équateur</t>
+  </si>
+  <si>
+    <t>He who arrests people arbitrarily AND indiscriminately</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ekatankoi </t>
+  </si>
+  <si>
+    <t>Tomba</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Steinbeck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ekuma </t>
+  </si>
+  <si>
+    <t xml:space="preserve">He who destroys things </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eminimbi </t>
+  </si>
+  <si>
+    <t>Emin, the wicked</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Uele </t>
+  </si>
+  <si>
+    <t>E. Schnitzer (Emin Pacha)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Palm leaf</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lac Leopold II</t>
+  </si>
+  <si>
+    <t>Lemaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Office that resemblesa battlefield</t>
+  </si>
+  <si>
+    <t>Ewa-Olefe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Womanizer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yanonge </t>
+  </si>
+  <si>
+    <t>Inongo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fazzari </t>
+  </si>
+  <si>
+    <t>Basoko, Mbesa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Much whipping; Hippopotamus-hide whip </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Baron Dhanis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pierced ear lobes </t>
+  </si>
+  <si>
+    <t>Uele</t>
+  </si>
+  <si>
+    <t>Ibrahim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hela </t>
+  </si>
+  <si>
+    <t>onomatopoea</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Isangi </t>
+  </si>
+  <si>
+    <t>Harens</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kisangani</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Butticaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tomba</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lieventhal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> He who shoots people</t>
+  </si>
+  <si>
+    <t>Bitter shrub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enmity </t>
+  </si>
+  <si>
+    <t>He who destroys Upper Congo the country</t>
+  </si>
+  <si>
+    <t>Congo Free State</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tomba </t>
+  </si>
+  <si>
+    <t>Clark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lying side </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomba </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pipe </t>
+  </si>
+  <si>
+    <t>Kilo, Moto</t>
+  </si>
+  <si>
+    <t>Priest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eastern Congo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">White men of urena lobata </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Opala</t>
+  </si>
+  <si>
+    <t>Elephant</t>
+  </si>
+  <si>
+    <t>Snake; Resentment</t>
+  </si>
+  <si>
+    <t>Wilson</t>
+  </si>
+  <si>
+    <t>Red ant; lack of civilization</t>
+  </si>
+  <si>
+    <t>H. Dupuis Shaw</t>
+  </si>
+  <si>
+    <t>Cloetens</t>
+  </si>
+  <si>
+    <t>G. Geerearts</t>
+  </si>
+  <si>
+    <t>J.M.F. Tumers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bed </t>
+  </si>
+  <si>
+    <t>Nkoyi(Nkoi)</t>
+  </si>
+  <si>
+    <t>Parrot</t>
+  </si>
+  <si>
+    <t>Leopard</t>
+  </si>
+  <si>
+    <t>Very Shameful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nkake </t>
+  </si>
+  <si>
+    <t>White Province Orientale, Équateur</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lightning; White cannibals  </t>
+  </si>
+  <si>
+    <t>Bad Official</t>
+  </si>
+  <si>
+    <t>Niangeniange</t>
+  </si>
+  <si>
+    <t>Nightly talking slit gong</t>
+  </si>
+  <si>
+    <t>Equateur, Province Orientale</t>
+  </si>
+  <si>
+    <t>Much Power</t>
+  </si>
+  <si>
+    <t>Priest; God’s healer</t>
+  </si>
+  <si>
+    <t>Witch</t>
+  </si>
+  <si>
+    <t>Elter</t>
+  </si>
+  <si>
+    <t>Ekonda</t>
+  </si>
+  <si>
+    <t>Bearded white man</t>
+  </si>
+  <si>
+    <t>Bird; Officials on the move</t>
+  </si>
+  <si>
+    <t>He has white beard and long hair</t>
+  </si>
+  <si>
+    <t>M. Caetano Pereira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H. Bombeeck </t>
+  </si>
+  <si>
+    <t>Territoire des cararactes</t>
+  </si>
+  <si>
+    <t>Bas Congo</t>
+  </si>
+  <si>
+    <t>Eastern congo</t>
+  </si>
+  <si>
+    <t>Irumu, Ituri, Eastern Congo</t>
+  </si>
+  <si>
+    <t>Yanonge</t>
+  </si>
+  <si>
+    <t>Kazembe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Travel; travel; Voyage at the foot of the world </t>
+  </si>
+  <si>
+    <t>Child of Europe</t>
+  </si>
+  <si>
+    <t>Eight; Eight lashes</t>
+  </si>
+  <si>
+    <t>White man of cotton</t>
+  </si>
+  <si>
+    <t>He who likes to eat</t>
+  </si>
+  <si>
+    <t>He who loves people</t>
+  </si>
+  <si>
+    <t>Chain, rope</t>
+  </si>
+  <si>
+    <t>White man who is like a snake</t>
+  </si>
+  <si>
+    <t>Strong white man</t>
+  </si>
+  <si>
+    <t>Mundele Ngolo</t>
+  </si>
+  <si>
+    <t>Short white man</t>
+  </si>
+  <si>
+    <t>Prince Leka</t>
+  </si>
+  <si>
+    <t>Thiry</t>
+  </si>
+  <si>
+    <t>De Meulemeester</t>
+  </si>
+  <si>
+    <t>Earth healer; Mine prospector</t>
+  </si>
+  <si>
+    <t>Durieux</t>
+  </si>
+  <si>
+    <t>Mondele Ngolo</t>
+  </si>
+  <si>
+    <t>White man of palm oil tree</t>
+  </si>
+  <si>
+    <t>White man of rice</t>
+  </si>
+  <si>
+    <t>White man of coffee</t>
+  </si>
+  <si>
+    <t>Village white man; Native son; Head of the post</t>
+  </si>
+  <si>
+    <t>Man who is always with is wife</t>
+  </si>
+  <si>
+    <t>Follower</t>
+  </si>
+  <si>
+    <t>Hinde</t>
+  </si>
+  <si>
+    <t>Bandundu, Bulungu</t>
+  </si>
+  <si>
+    <t>Small, small; verry small</t>
+  </si>
+  <si>
+    <t>Uele-Itimbiri</t>
+  </si>
+  <si>
+    <t>Verstracten</t>
+  </si>
+  <si>
+    <t>Middage</t>
+  </si>
+  <si>
+    <t>Small, short</t>
+  </si>
+  <si>
+    <t>Trees</t>
+  </si>
+  <si>
+    <t>Leopard's eyes; Theif</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Many knives; Ferocious and wild warrior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Kazembe </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mayo-Monteiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Prince who has things to say </t>
+  </si>
+  <si>
+    <t>A. De Meulemeester</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Strong chest</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> everywhere</t>
+  </si>
+  <si>
+    <t>Mbavu Munene</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Big chest</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oppressor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Territoire des cataractes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Words</t>
+  </si>
+  <si>
+    <t>Angry eyes; Harshness</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Enslavers</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> any agent</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mirror, eyeglasses, scrutiny; Witchcraft</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Buta</t>
+  </si>
+  <si>
+    <t>Lightning; Scrapers of the heaps; White cannibals</t>
+  </si>
+  <si>
+    <t>Zimba</t>
+  </si>
+  <si>
+    <t>Beard</t>
+  </si>
+  <si>
+    <t>Rush, rush</t>
+  </si>
+  <si>
+    <t>Ubangi</t>
+  </si>
+  <si>
+    <t>Van Hende</t>
+  </si>
+  <si>
+    <t>Main roads; Officials on the moove</t>
+  </si>
+  <si>
+    <t>Of the old village</t>
+  </si>
+  <si>
+    <t>Kuba</t>
+  </si>
+  <si>
+    <t>Chaser of women</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Force, power, strong </t>
+  </si>
+  <si>
+    <t>Fat</t>
+  </si>
+  <si>
+    <t>A lot of fat</t>
+  </si>
+  <si>
+    <t>fat</t>
+  </si>
+  <si>
+    <t>Mbesa, Beugamisa, Kilo</t>
+  </si>
+  <si>
+    <t>Bell, M. Polis</t>
+  </si>
+  <si>
+    <t>P.J. Van de Moere</t>
+  </si>
+  <si>
+    <t>Fine collector</t>
+  </si>
+  <si>
+    <t>Go back where you came from</t>
+  </si>
+  <si>
+    <t>Builder</t>
+  </si>
+  <si>
+    <t>Predatory trade</t>
+  </si>
+  <si>
+    <t>tall-tall</t>
+  </si>
+  <si>
+    <t>venomous snake</t>
+  </si>
+  <si>
+    <t>Elegant</t>
+  </si>
+  <si>
+    <t>Broom; Flywhisk</t>
+  </si>
+  <si>
+    <t>Garden destructor</t>
+  </si>
+  <si>
+    <t>Yahisuli</t>
+  </si>
+  <si>
+    <t>Wautier</t>
+  </si>
+  <si>
+    <t>Dekeyzer</t>
+  </si>
+  <si>
+    <t>Ekonda, Opala</t>
+  </si>
+  <si>
+    <t>Jamsin</t>
+  </si>
+  <si>
+    <t>G.O. Scioz</t>
+  </si>
+  <si>
+    <t>P. Ponthier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mampoko </t>
+  </si>
+  <si>
+    <t>M. Spelier</t>
+  </si>
+  <si>
+    <t>Prickly tree</t>
+  </si>
+  <si>
+    <t>Shooter</t>
+  </si>
+  <si>
+    <t>Tumba</t>
+  </si>
+  <si>
+    <t>Belly</t>
+  </si>
+  <si>
+    <t>Elegance</t>
+  </si>
+  <si>
+    <t>He who kills</t>
+  </si>
+  <si>
+    <t>Millipede</t>
+  </si>
+  <si>
+    <t>Lefevre</t>
+  </si>
+  <si>
+    <t>Basoko Purnode</t>
+  </si>
+  <si>
+    <t>Violence trigger; troublemaker</t>
+  </si>
+  <si>
+    <t>Crawford</t>
+  </si>
+  <si>
+    <t>Lauwers Atay</t>
+  </si>
+  <si>
+    <t>G. Junker</t>
+  </si>
+  <si>
+    <t>Sergers</t>
+  </si>
+  <si>
+    <t>He who can strangle me</t>
+  </si>
+  <si>
+    <t>Commander</t>
+  </si>
+  <si>
+    <t>He who smashes people; Grinder</t>
+  </si>
+  <si>
+    <t>Kisangi</t>
+  </si>
+  <si>
+    <t>Five Jean</t>
+  </si>
+  <si>
+    <t>Handsome; Beautiful; Delicious taste</t>
+  </si>
+  <si>
+    <t>handsome agent</t>
+  </si>
+  <si>
+    <t>He who cuts people in pieces</t>
+  </si>
+  <si>
+    <t>Moltedo</t>
+  </si>
+  <si>
+    <t>Bugle</t>
+  </si>
+  <si>
+    <t>A.J.G. Bolle</t>
+  </si>
+  <si>
+    <t>Tall and lean</t>
+  </si>
+  <si>
+    <t>Bugschlag</t>
+  </si>
+  <si>
+    <t>Gasper</t>
+  </si>
+  <si>
+    <t>J. de Dixmude</t>
+  </si>
+  <si>
+    <t>Captain</t>
+  </si>
+  <si>
+    <t>Little music</t>
+  </si>
+  <si>
+    <t>small, junior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whipping </t>
+  </si>
+  <si>
+    <t>Maniema</t>
+  </si>
+  <si>
+    <t>Copulation</t>
+  </si>
+  <si>
+    <t>War-like office</t>
+  </si>
+  <si>
+    <t>Horse</t>
+  </si>
+  <si>
+    <t>Small scar; device of torture</t>
+  </si>
+  <si>
+    <t>L. De Brandt</t>
+  </si>
+  <si>
+    <t>Lulubourg</t>
+  </si>
+  <si>
+    <t>Wissman</t>
+  </si>
+  <si>
+    <t>Atamu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1354,8 +2012,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1647,10 +2306,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D281"/>
+  <dimension ref="A1:D272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1660,16 +2319,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1692,13 +2351,13 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="C3" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="D3" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1706,13 +2365,13 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
       <c r="C4" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="D4" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1720,13 +2379,13 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="C5" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="D5" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1734,13 +2393,13 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="C6" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="D6" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1748,27 +2407,27 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="C7" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="D7" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="B8" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="C8" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="D8" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1776,125 +2435,139 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="C9" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
       <c r="D9" t="s">
-        <v>285</v>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>325</v>
+      </c>
+      <c r="C10" t="s">
+        <v>267</v>
+      </c>
+      <c r="D10" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="C11" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="D11" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="C12" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="D12" t="s">
-        <v>287</v>
+        <v>327</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="C13" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="D13" t="s">
-        <v>347</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>348</v>
+        <v>267</v>
       </c>
       <c r="C14" t="s">
-        <v>302</v>
+        <v>329</v>
       </c>
       <c r="D14" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>287</v>
+        <v>328</v>
       </c>
       <c r="C15" t="s">
-        <v>349</v>
+        <v>312</v>
       </c>
       <c r="D15" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="C16" t="s">
-        <v>332</v>
+        <v>273</v>
       </c>
       <c r="D16" t="s">
-        <v>287</v>
+        <v>331</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="C17" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="D17" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>647</v>
       </c>
       <c r="B18" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="C18" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="D18" t="s">
-        <v>353</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1902,13 +2575,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="C19" t="s">
-        <v>304</v>
+        <v>338</v>
       </c>
       <c r="D19" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1916,13 +2589,13 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>357</v>
+        <v>335</v>
       </c>
       <c r="C20" t="s">
-        <v>358</v>
+        <v>284</v>
       </c>
       <c r="D20" t="s">
-        <v>285</v>
+        <v>336</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1930,13 +2603,13 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="C21" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="D21" t="s">
-        <v>356</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1944,13 +2617,13 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>359</v>
+        <v>318</v>
       </c>
       <c r="C22" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="D22" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1958,13 +2631,13 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C23" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="D23" t="s">
-        <v>285</v>
+        <v>344</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1972,13 +2645,13 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="C24" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="D24" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1986,13 +2659,13 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="C25" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="D25" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2000,13 +2673,13 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="C26" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="D26" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2014,13 +2687,13 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="C27" t="s">
-        <v>369</v>
+        <v>272</v>
       </c>
       <c r="D27" t="s">
-        <v>372</v>
+        <v>267</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2028,13 +2701,13 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="C28" t="s">
-        <v>292</v>
+        <v>355</v>
       </c>
       <c r="D28" t="s">
-        <v>287</v>
+        <v>356</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2042,13 +2715,13 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="C29" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="D29" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -2056,13 +2729,13 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="C30" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="D30" t="s">
-        <v>379</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -2070,13 +2743,13 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="C31" t="s">
-        <v>381</v>
+        <v>338</v>
       </c>
       <c r="D31" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -2084,13 +2757,13 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="C32" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="D32" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -2098,13 +2771,13 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="C33" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D33" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -2112,13 +2785,13 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>384</v>
+        <v>267</v>
       </c>
       <c r="C34" t="s">
-        <v>385</v>
+        <v>283</v>
       </c>
       <c r="D34" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -2126,13 +2799,13 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>287</v>
+        <v>366</v>
       </c>
       <c r="C35" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="D35" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -2140,41 +2813,41 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="C36" t="s">
-        <v>292</v>
+        <v>368</v>
       </c>
       <c r="D36" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>369</v>
       </c>
       <c r="B37" t="s">
-        <v>387</v>
+        <v>267</v>
       </c>
       <c r="C37" t="s">
-        <v>388</v>
+        <v>272</v>
       </c>
       <c r="D37" t="s">
-        <v>287</v>
+        <v>370</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>389</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="C38" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="D38" t="s">
-        <v>390</v>
+        <v>267</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -2182,13 +2855,13 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>287</v>
+        <v>371</v>
       </c>
       <c r="C39" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="D39" t="s">
-        <v>287</v>
+        <v>372</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -2196,13 +2869,13 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="C40" t="s">
-        <v>287</v>
+        <v>374</v>
       </c>
       <c r="D40" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -2210,13 +2883,13 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="C41" t="s">
-        <v>394</v>
+        <v>273</v>
       </c>
       <c r="D41" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -2224,13 +2897,13 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="C42" t="s">
-        <v>293</v>
+        <v>377</v>
       </c>
       <c r="D42" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -2238,13 +2911,13 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>396</v>
+        <v>267</v>
       </c>
       <c r="C43" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="D43" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -2252,13 +2925,13 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="C44" t="s">
-        <v>402</v>
+        <v>283</v>
       </c>
       <c r="D44" t="s">
-        <v>401</v>
+        <v>267</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -2266,13 +2939,13 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>287</v>
+        <v>383</v>
       </c>
       <c r="C45" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="D45" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -2280,13 +2953,13 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>403</v>
+        <v>267</v>
       </c>
       <c r="C46" t="s">
-        <v>332</v>
+        <v>267</v>
       </c>
       <c r="D46" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -2294,13 +2967,13 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>287</v>
+        <v>384</v>
       </c>
       <c r="C47" t="s">
-        <v>287</v>
+        <v>385</v>
       </c>
       <c r="D47" t="s">
-        <v>287</v>
+        <v>386</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -2308,13 +2981,13 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="C48" t="s">
-        <v>405</v>
+        <v>277</v>
       </c>
       <c r="D48" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2322,13 +2995,13 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="C49" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="D49" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2336,13 +3009,13 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>409</v>
+        <v>267</v>
       </c>
       <c r="C50" t="s">
         <v>283</v>
       </c>
       <c r="D50" t="s">
-        <v>410</v>
+        <v>267</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2350,13 +3023,10 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>287</v>
+        <v>391</v>
       </c>
       <c r="C51" t="s">
-        <v>303</v>
-      </c>
-      <c r="D51" t="s">
-        <v>287</v>
+        <v>392</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -2364,10 +3034,13 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="C52" t="s">
-        <v>412</v>
+        <v>312</v>
+      </c>
+      <c r="D52" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -2375,1513 +3048,3050 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>413</v>
+        <v>384</v>
       </c>
       <c r="C53" t="s">
-        <v>332</v>
+        <v>283</v>
       </c>
       <c r="D53" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>397</v>
       </c>
       <c r="B54" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C54" t="s">
-        <v>303</v>
+        <v>394</v>
       </c>
       <c r="D54" t="s">
-        <v>287</v>
+        <v>395</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>417</v>
+        <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>418</v>
+        <v>398</v>
       </c>
       <c r="C55" t="s">
-        <v>414</v>
+        <v>273</v>
       </c>
       <c r="D55" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>399</v>
       </c>
       <c r="B56" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="C56" t="s">
-        <v>293</v>
+        <v>401</v>
       </c>
       <c r="D56" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>419</v>
+        <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="C57" t="s">
-        <v>421</v>
+        <v>267</v>
       </c>
       <c r="D57" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>404</v>
       </c>
       <c r="B58" t="s">
-        <v>423</v>
+        <v>267</v>
       </c>
       <c r="C58" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D58" t="s">
-        <v>429</v>
+        <v>267</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>424</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>287</v>
+        <v>405</v>
       </c>
       <c r="C59" t="s">
-        <v>303</v>
-      </c>
-      <c r="D59" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>406</v>
       </c>
       <c r="B60" t="s">
-        <v>425</v>
+        <v>267</v>
       </c>
       <c r="C60" t="s">
-        <v>303</v>
+        <v>273</v>
+      </c>
+      <c r="D60" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>426</v>
+        <v>407</v>
       </c>
       <c r="B61" t="s">
-        <v>287</v>
+        <v>408</v>
       </c>
       <c r="C61" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="D61" t="s">
-        <v>430</v>
+        <v>267</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>427</v>
+        <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="C62" t="s">
-        <v>303</v>
+        <v>412</v>
       </c>
       <c r="D62" t="s">
-        <v>287</v>
+        <v>413</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>60</v>
       </c>
+      <c r="B63" t="s">
+        <v>414</v>
+      </c>
+      <c r="C63" t="s">
+        <v>340</v>
+      </c>
+      <c r="D63" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>416</v>
+      </c>
+      <c r="C64" t="s">
+        <v>277</v>
+      </c>
+      <c r="D64" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>419</v>
+      </c>
+      <c r="B65" t="s">
+        <v>420</v>
+      </c>
+      <c r="C65" t="s">
+        <v>340</v>
+      </c>
+      <c r="D65" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="B66" t="s">
+        <v>421</v>
+      </c>
+      <c r="C66" t="s">
+        <v>340</v>
+      </c>
+      <c r="D66" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="B67" t="s">
+        <v>423</v>
+      </c>
+      <c r="C67" t="s">
+        <v>277</v>
+      </c>
+      <c r="D67" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="B68" t="s">
+        <v>267</v>
+      </c>
+      <c r="C68" t="s">
+        <v>283</v>
+      </c>
+      <c r="D68" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>428</v>
+      </c>
+      <c r="B69" t="s">
+        <v>427</v>
+      </c>
+      <c r="C69" t="s">
+        <v>277</v>
+      </c>
+      <c r="D69" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>424</v>
+      </c>
+      <c r="B70" t="s">
+        <v>267</v>
+      </c>
+      <c r="C70" t="s">
+        <v>401</v>
+      </c>
+      <c r="D70" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>425</v>
+      </c>
+      <c r="B71" t="s">
+        <v>429</v>
+      </c>
+      <c r="C71" t="s">
+        <v>426</v>
+      </c>
+      <c r="D71" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>430</v>
+      </c>
+      <c r="B72" t="s">
+        <v>432</v>
+      </c>
+      <c r="C72" t="s">
+        <v>433</v>
+      </c>
+      <c r="D72" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>431</v>
+      </c>
+      <c r="B73" t="s">
+        <v>267</v>
+      </c>
+      <c r="C73" t="s">
+        <v>435</v>
+      </c>
+      <c r="D73" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>436</v>
+      </c>
+      <c r="B74" t="s">
+        <v>438</v>
+      </c>
+      <c r="C74" t="s">
+        <v>437</v>
+      </c>
+      <c r="D74" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>439</v>
+      </c>
+      <c r="C75" t="s">
+        <v>440</v>
+      </c>
+      <c r="D75" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>442</v>
+      </c>
+      <c r="B76" t="s">
+        <v>443</v>
+      </c>
+      <c r="D76" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>444</v>
+      </c>
+      <c r="B77" t="s">
+        <v>445</v>
+      </c>
+      <c r="C77" t="s">
+        <v>446</v>
+      </c>
+      <c r="D77" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="B78" t="s">
+        <v>448</v>
+      </c>
+      <c r="C78" t="s">
+        <v>449</v>
+      </c>
+      <c r="D78" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="B79" t="s">
+        <v>451</v>
+      </c>
+      <c r="D79" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>452</v>
+      </c>
+      <c r="B80" t="s">
+        <v>453</v>
+      </c>
+      <c r="C80" t="s">
+        <v>454</v>
+      </c>
+      <c r="D80" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="B81" t="s">
+        <v>267</v>
+      </c>
+      <c r="C81" t="s">
+        <v>455</v>
+      </c>
+      <c r="D81" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>456</v>
+      </c>
+      <c r="B82" t="s">
+        <v>267</v>
+      </c>
+      <c r="C82" t="s">
+        <v>457</v>
+      </c>
+      <c r="D82" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="B83" t="s">
+        <v>458</v>
+      </c>
+      <c r="C83" t="s">
+        <v>263</v>
+      </c>
+      <c r="D83" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="B84" t="s">
+        <v>267</v>
+      </c>
+      <c r="C84" t="s">
+        <v>267</v>
+      </c>
+      <c r="D84" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="B85" t="s">
+        <v>460</v>
+      </c>
+      <c r="C85" t="s">
+        <v>461</v>
+      </c>
+      <c r="D85" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>463</v>
+      </c>
+      <c r="B86" t="s">
+        <v>464</v>
+      </c>
+      <c r="C86" t="s">
+        <v>465</v>
+      </c>
+      <c r="D86" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="B87" t="s">
+        <v>267</v>
+      </c>
+      <c r="C87" t="s">
+        <v>467</v>
+      </c>
+      <c r="D87" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="B88" t="s">
+        <v>267</v>
+      </c>
+      <c r="C88" t="s">
+        <v>469</v>
+      </c>
+      <c r="D88" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="B89" t="s">
+        <v>267</v>
+      </c>
+      <c r="C89" t="s">
+        <v>267</v>
+      </c>
+      <c r="D89" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="B90" t="s">
+        <v>471</v>
+      </c>
+      <c r="C90" t="s">
+        <v>267</v>
+      </c>
+      <c r="D90" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="B91" t="s">
+        <v>472</v>
+      </c>
+      <c r="C91" t="s">
+        <v>267</v>
+      </c>
+      <c r="D91" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="B92" t="s">
+        <v>473</v>
+      </c>
+      <c r="C92" t="s">
+        <v>272</v>
+      </c>
+      <c r="D92" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="B93" t="s">
+        <v>474</v>
+      </c>
+      <c r="C93" t="s">
+        <v>475</v>
+      </c>
+      <c r="D93" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="B94" t="s">
+        <v>640</v>
+      </c>
+      <c r="C94" t="s">
+        <v>284</v>
+      </c>
+      <c r="D94" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="B95" t="s">
+        <v>641</v>
+      </c>
+      <c r="C95" t="s">
+        <v>479</v>
+      </c>
+      <c r="D95" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="B96" t="s">
+        <v>642</v>
+      </c>
+      <c r="C96" t="s">
+        <v>277</v>
+      </c>
+      <c r="D96" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="B97" t="s">
+        <v>643</v>
+      </c>
+      <c r="C97" t="s">
+        <v>277</v>
+      </c>
+      <c r="D97" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="B98" t="s">
+        <v>267</v>
+      </c>
+      <c r="C98" t="s">
+        <v>645</v>
+      </c>
+      <c r="D98" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="B99" t="s">
+        <v>638</v>
+      </c>
+      <c r="C99" t="s">
+        <v>639</v>
+      </c>
+      <c r="D99" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="B100" t="s">
+        <v>637</v>
+      </c>
+      <c r="C100" t="s">
+        <v>283</v>
+      </c>
+      <c r="D100" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="B101" t="s">
+        <v>636</v>
+      </c>
+      <c r="C101" t="s">
+        <v>268</v>
+      </c>
+      <c r="D101" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="B102" t="s">
+        <v>267</v>
+      </c>
+      <c r="C102" t="s">
+        <v>283</v>
+      </c>
+      <c r="D102" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="B103" t="s">
+        <v>635</v>
+      </c>
+      <c r="C103" t="s">
+        <v>288</v>
+      </c>
+      <c r="D103" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="B104" t="s">
+        <v>267</v>
+      </c>
+      <c r="C104" t="s">
+        <v>455</v>
+      </c>
+      <c r="D104" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="B105" t="s">
+        <v>267</v>
+      </c>
+      <c r="C105" t="s">
+        <v>283</v>
+      </c>
+      <c r="D105" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="B106" t="s">
+        <v>267</v>
+      </c>
+      <c r="C106" t="s">
+        <v>277</v>
+      </c>
+      <c r="D106" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="B107" t="s">
+        <v>267</v>
+      </c>
+      <c r="C107" t="s">
+        <v>267</v>
+      </c>
+      <c r="D107" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="B108" t="s">
+        <v>631</v>
+      </c>
+      <c r="C108" t="s">
+        <v>277</v>
+      </c>
+      <c r="D108" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="B109" t="s">
+        <v>631</v>
+      </c>
+      <c r="C109" t="s">
+        <v>277</v>
+      </c>
+      <c r="D109" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="B110" t="s">
+        <v>267</v>
+      </c>
+      <c r="C110" t="s">
+        <v>283</v>
+      </c>
+      <c r="D110" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="B111" t="s">
+        <v>629</v>
+      </c>
+      <c r="C111" t="s">
+        <v>268</v>
+      </c>
+      <c r="D111" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="B112" t="s">
+        <v>267</v>
+      </c>
+      <c r="C112" t="s">
+        <v>283</v>
+      </c>
+      <c r="D112" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="B113" t="s">
+        <v>267</v>
+      </c>
+      <c r="C113" t="s">
+        <v>283</v>
+      </c>
+      <c r="D113" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="B114" t="s">
+        <v>267</v>
+      </c>
+      <c r="C114" t="s">
+        <v>283</v>
+      </c>
+      <c r="D114" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="B115" t="s">
+        <v>627</v>
+      </c>
+      <c r="C115" t="s">
+        <v>263</v>
+      </c>
+      <c r="D115" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="B116" t="s">
+        <v>625</v>
+      </c>
+      <c r="C116" t="s">
+        <v>338</v>
+      </c>
+      <c r="D116" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="B117" t="s">
+        <v>622</v>
+      </c>
+      <c r="C117" t="s">
+        <v>623</v>
+      </c>
+      <c r="D117" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="B118" t="s">
+        <v>267</v>
+      </c>
+      <c r="C118" t="s">
+        <v>267</v>
+      </c>
+      <c r="D118" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="B119" t="s">
+        <v>267</v>
+      </c>
+      <c r="C119" t="s">
+        <v>461</v>
+      </c>
+      <c r="D119" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="B120" t="s">
+        <v>267</v>
+      </c>
+      <c r="C120" t="s">
+        <v>273</v>
+      </c>
+      <c r="D120" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="B121" t="s">
+        <v>620</v>
+      </c>
+      <c r="C121" t="s">
+        <v>272</v>
+      </c>
+      <c r="D121" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="B122" t="s">
+        <v>621</v>
+      </c>
+      <c r="C122" t="s">
+        <v>267</v>
+      </c>
+      <c r="D122" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="B123" t="s">
+        <v>267</v>
+      </c>
+      <c r="C123" t="s">
+        <v>283</v>
+      </c>
+      <c r="D123" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="B124" t="s">
+        <v>615</v>
+      </c>
+      <c r="C124" t="s">
+        <v>283</v>
+      </c>
+      <c r="D124" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="B125" t="s">
+        <v>267</v>
+      </c>
+      <c r="C125" t="s">
+        <v>614</v>
+      </c>
+      <c r="D125" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="B126" t="s">
+        <v>267</v>
+      </c>
+      <c r="C126" t="s">
+        <v>283</v>
+      </c>
+      <c r="D126" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="B127" t="s">
+        <v>267</v>
+      </c>
+      <c r="C127" t="s">
+        <v>283</v>
+      </c>
+      <c r="D127" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="B128" t="s">
+        <v>612</v>
+      </c>
+      <c r="C128" t="s">
+        <v>600</v>
+      </c>
+      <c r="D128" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+      <c r="B129" t="s">
+        <v>611</v>
+      </c>
+      <c r="C129" t="s">
+        <v>437</v>
+      </c>
+      <c r="D129" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="B130" t="s">
+        <v>610</v>
+      </c>
+      <c r="C130" t="s">
+        <v>613</v>
+      </c>
+      <c r="D130" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="B131" t="s">
+        <v>609</v>
+      </c>
+      <c r="C131" t="s">
+        <v>288</v>
+      </c>
+      <c r="D131" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+      <c r="B132" t="s">
+        <v>607</v>
+      </c>
+      <c r="C132" t="s">
+        <v>608</v>
+      </c>
+      <c r="D132" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+      <c r="B133" t="s">
+        <v>606</v>
+      </c>
+      <c r="C133" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="B134" t="s">
+        <v>267</v>
+      </c>
+      <c r="C134" t="s">
+        <v>604</v>
+      </c>
+      <c r="D134" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="B135" t="s">
+        <v>596</v>
+      </c>
+      <c r="C135" t="s">
+        <v>272</v>
+      </c>
+      <c r="D135" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="B136" t="s">
+        <v>267</v>
+      </c>
+      <c r="C136" t="s">
+        <v>597</v>
+      </c>
+      <c r="D136" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="B137" t="s">
+        <v>595</v>
+      </c>
+      <c r="C137" t="s">
+        <v>284</v>
+      </c>
+      <c r="D137" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="B138" t="s">
+        <v>594</v>
+      </c>
+      <c r="C138" t="s">
+        <v>288</v>
+      </c>
+      <c r="D138" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="B139" t="s">
+        <v>267</v>
+      </c>
+      <c r="C139" t="s">
+        <v>282</v>
+      </c>
+      <c r="D139" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="B140" t="s">
+        <v>593</v>
+      </c>
+      <c r="C140" t="s">
+        <v>600</v>
+      </c>
+      <c r="D140" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+      <c r="B141" t="s">
+        <v>267</v>
+      </c>
+      <c r="C141" t="s">
+        <v>273</v>
+      </c>
+      <c r="D141" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+      <c r="B142" t="s">
+        <v>592</v>
+      </c>
+      <c r="C142" t="s">
+        <v>481</v>
+      </c>
+      <c r="D142" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+      <c r="B143" t="s">
+        <v>267</v>
+      </c>
+      <c r="C143" t="s">
+        <v>268</v>
+      </c>
+      <c r="D143" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+      <c r="B144" t="s">
+        <v>267</v>
+      </c>
+      <c r="C144" t="s">
+        <v>283</v>
+      </c>
+      <c r="D144" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+      <c r="B145" t="s">
+        <v>464</v>
+      </c>
+      <c r="C145" t="s">
+        <v>282</v>
+      </c>
+      <c r="D145" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+      <c r="B146" t="s">
+        <v>591</v>
+      </c>
+      <c r="C146" t="s">
+        <v>521</v>
+      </c>
+      <c r="D146" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+      <c r="B147" t="s">
+        <v>590</v>
+      </c>
+      <c r="C147" t="s">
+        <v>263</v>
+      </c>
+      <c r="D147" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+      <c r="B148" t="s">
+        <v>589</v>
+      </c>
+      <c r="C148" t="s">
+        <v>572</v>
+      </c>
+      <c r="D148" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+      <c r="B149" t="s">
+        <v>588</v>
+      </c>
+      <c r="C149" t="s">
+        <v>268</v>
+      </c>
+      <c r="D149" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+      <c r="B150" t="s">
+        <v>334</v>
+      </c>
+      <c r="C150" t="s">
+        <v>284</v>
+      </c>
+      <c r="D150" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+      <c r="B151" t="s">
+        <v>584</v>
+      </c>
+      <c r="C151" t="s">
+        <v>283</v>
+      </c>
+      <c r="D151" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+      <c r="B152" t="s">
+        <v>583</v>
+      </c>
+      <c r="C152" t="s">
+        <v>585</v>
+      </c>
+      <c r="D152" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+      <c r="B153" t="s">
+        <v>583</v>
+      </c>
+      <c r="C153" t="s">
+        <v>282</v>
+      </c>
+      <c r="D153" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+      <c r="B154" t="s">
+        <v>582</v>
+      </c>
+      <c r="C154" t="s">
+        <v>267</v>
+      </c>
+      <c r="D154" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+      <c r="B155" t="s">
+        <v>581</v>
+      </c>
+      <c r="C155" t="s">
+        <v>281</v>
+      </c>
+      <c r="D155" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+      <c r="B156" t="s">
+        <v>267</v>
+      </c>
+      <c r="C156" t="s">
+        <v>283</v>
+      </c>
+      <c r="D156" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+      <c r="B157" t="s">
+        <v>580</v>
+      </c>
+      <c r="C157" t="s">
+        <v>282</v>
+      </c>
+      <c r="D157" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>143</v>
+      </c>
+      <c r="B158" t="s">
+        <v>578</v>
+      </c>
+      <c r="C158" t="s">
+        <v>579</v>
+      </c>
+      <c r="D158" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+      <c r="B159" t="s">
+        <v>267</v>
+      </c>
+      <c r="C159" t="s">
+        <v>572</v>
+      </c>
+      <c r="D159" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+      <c r="B160" t="s">
+        <v>577</v>
+      </c>
+      <c r="C160" t="s">
+        <v>277</v>
+      </c>
+      <c r="D160" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+      <c r="B161" t="s">
+        <v>544</v>
+      </c>
+      <c r="C161" t="s">
+        <v>461</v>
+      </c>
+      <c r="D161" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+      <c r="B162" t="s">
+        <v>267</v>
+      </c>
+      <c r="C162" t="s">
+        <v>575</v>
+      </c>
+      <c r="D162" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+      <c r="B163" t="s">
+        <v>267</v>
+      </c>
+      <c r="C163" t="s">
+        <v>283</v>
+      </c>
+      <c r="D163" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+      <c r="B164" t="s">
+        <v>574</v>
+      </c>
+      <c r="C164" t="s">
+        <v>268</v>
+      </c>
+      <c r="D164" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+      <c r="B165" t="s">
+        <v>573</v>
+      </c>
+      <c r="C165" t="s">
+        <v>288</v>
+      </c>
+      <c r="D165" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+      <c r="B166" t="s">
+        <v>571</v>
+      </c>
+      <c r="C166" t="s">
+        <v>570</v>
+      </c>
+      <c r="D166" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+      <c r="B167" t="s">
+        <v>267</v>
+      </c>
+      <c r="C167" t="s">
+        <v>572</v>
+      </c>
+      <c r="D167" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>153</v>
+      </c>
+      <c r="B168" t="s">
+        <v>569</v>
+      </c>
+      <c r="C168" t="s">
+        <v>570</v>
+      </c>
+      <c r="D168" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+      <c r="B169" t="s">
+        <v>567</v>
+      </c>
+      <c r="C169" t="s">
+        <v>485</v>
+      </c>
+      <c r="D169" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+      <c r="B170" t="s">
+        <v>566</v>
+      </c>
+      <c r="C170" t="s">
+        <v>485</v>
+      </c>
+      <c r="D170" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+      <c r="B171" t="s">
+        <v>565</v>
+      </c>
+      <c r="C171" t="s">
+        <v>564</v>
+      </c>
+      <c r="D171" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>156</v>
+      </c>
+      <c r="B172" t="s">
+        <v>563</v>
+      </c>
+      <c r="C172" t="s">
+        <v>564</v>
+      </c>
+      <c r="D172" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>561</v>
+      </c>
+      <c r="B173" t="s">
+        <v>562</v>
+      </c>
+      <c r="C173" t="s">
+        <v>560</v>
+      </c>
+      <c r="D173" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+      <c r="B174" t="s">
+        <v>559</v>
+      </c>
+      <c r="C174" t="s">
+        <v>560</v>
+      </c>
+      <c r="D174" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+      <c r="B175" t="s">
+        <v>557</v>
+      </c>
+      <c r="D175" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+      <c r="B176" t="s">
+        <v>554</v>
+      </c>
+      <c r="C176" t="s">
+        <v>555</v>
+      </c>
+      <c r="D176" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+      <c r="B177" t="s">
+        <v>553</v>
+      </c>
+      <c r="C177" t="s">
+        <v>281</v>
+      </c>
+      <c r="D177" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+      <c r="B178" t="s">
+        <v>552</v>
+      </c>
+      <c r="C178" t="s">
+        <v>263</v>
+      </c>
+      <c r="D178" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+      <c r="B179" t="s">
+        <v>551</v>
+      </c>
+      <c r="C179" t="s">
+        <v>281</v>
+      </c>
+      <c r="D179" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+      <c r="B180" t="s">
+        <v>547</v>
+      </c>
+      <c r="C180" t="s">
+        <v>548</v>
+      </c>
+      <c r="D180" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+      <c r="B181" t="s">
+        <v>544</v>
+      </c>
+      <c r="C181" t="s">
+        <v>461</v>
+      </c>
+      <c r="D181" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+      <c r="B182" t="s">
+        <v>543</v>
+      </c>
+      <c r="D182" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>166</v>
+      </c>
+      <c r="B183" t="s">
+        <v>542</v>
+      </c>
+      <c r="C183" t="s">
+        <v>281</v>
+      </c>
+      <c r="D183" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+      <c r="B184" t="s">
+        <v>541</v>
+      </c>
+      <c r="C184" t="s">
+        <v>288</v>
+      </c>
+      <c r="D184" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+      <c r="B185" t="s">
+        <v>540</v>
+      </c>
+      <c r="C185" t="s">
+        <v>288</v>
+      </c>
+      <c r="D185" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+      <c r="B186" t="s">
+        <v>539</v>
+      </c>
+      <c r="C186" t="s">
+        <v>288</v>
+      </c>
+      <c r="D186" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>538</v>
+      </c>
+      <c r="B187" t="s">
+        <v>530</v>
+      </c>
+      <c r="C187" t="s">
+        <v>517</v>
+      </c>
+      <c r="D187" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+      <c r="B188" t="s">
+        <v>536</v>
+      </c>
+      <c r="C188" t="s">
+        <v>288</v>
+      </c>
+      <c r="D188" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+      <c r="B189" t="s">
+        <v>267</v>
+      </c>
+      <c r="C189" t="s">
+        <v>479</v>
+      </c>
+      <c r="D189" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+      <c r="B190" t="s">
+        <v>304</v>
+      </c>
+      <c r="C190" t="s">
+        <v>272</v>
+      </c>
+      <c r="D190" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+      <c r="B191" t="s">
+        <v>267</v>
+      </c>
+      <c r="C191" t="s">
+        <v>288</v>
+      </c>
+      <c r="D191" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+      <c r="B192" t="s">
+        <v>267</v>
+      </c>
+      <c r="C192" t="s">
+        <v>283</v>
+      </c>
+      <c r="D192" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+      <c r="B193" t="s">
+        <v>533</v>
+      </c>
+      <c r="C193" t="s">
+        <v>267</v>
+      </c>
+      <c r="D193" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+      <c r="B194" t="s">
+        <v>532</v>
+      </c>
+      <c r="C194" t="s">
+        <v>516</v>
+      </c>
+      <c r="D194" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+      <c r="B195" t="s">
+        <v>267</v>
+      </c>
+      <c r="C195" t="s">
+        <v>517</v>
+      </c>
+      <c r="D195" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>531</v>
+      </c>
+      <c r="B196" t="s">
+        <v>530</v>
+      </c>
+      <c r="C196" t="s">
+        <v>517</v>
+      </c>
+      <c r="D196" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+      <c r="B197" t="s">
+        <v>529</v>
+      </c>
+      <c r="C197" t="s">
+        <v>517</v>
+      </c>
+      <c r="D197" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+      <c r="B198" t="s">
+        <v>267</v>
+      </c>
+      <c r="C198" t="s">
+        <v>517</v>
+      </c>
+      <c r="D198" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+      <c r="B199" t="s">
+        <v>528</v>
+      </c>
+      <c r="C199" t="s">
+        <v>518</v>
+      </c>
+      <c r="D199" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+      <c r="B200" t="s">
+        <v>482</v>
+      </c>
+      <c r="C200" t="s">
+        <v>312</v>
+      </c>
+      <c r="D200" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+      <c r="B201" t="s">
+        <v>527</v>
+      </c>
+      <c r="C201" t="s">
+        <v>519</v>
+      </c>
+      <c r="D201" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
+      <c r="B202" t="s">
+        <v>526</v>
+      </c>
+      <c r="C202" t="s">
+        <v>520</v>
+      </c>
+      <c r="D202" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+      <c r="B203" t="s">
+        <v>525</v>
+      </c>
+      <c r="C203" t="s">
+        <v>274</v>
+      </c>
+      <c r="D203" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
+      <c r="B204" t="s">
+        <v>524</v>
+      </c>
+      <c r="C204" t="s">
+        <v>282</v>
+      </c>
+      <c r="D204" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+      <c r="B205" t="s">
+        <v>523</v>
+      </c>
+      <c r="C205" t="s">
+        <v>272</v>
+      </c>
+      <c r="D205" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+      <c r="B206" t="s">
+        <v>334</v>
+      </c>
+      <c r="C206" t="s">
+        <v>267</v>
+      </c>
+      <c r="D206" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+      <c r="B207" t="s">
+        <v>522</v>
+      </c>
+      <c r="C207" t="s">
+        <v>521</v>
+      </c>
+      <c r="D207" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
+      <c r="B208" t="s">
+        <v>267</v>
+      </c>
+      <c r="C208" t="s">
+        <v>461</v>
+      </c>
+      <c r="D208" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+      <c r="B209" t="s">
+        <v>513</v>
+      </c>
+      <c r="C209" t="s">
+        <v>461</v>
+      </c>
+      <c r="D209" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
+      <c r="B210" t="s">
+        <v>512</v>
+      </c>
+      <c r="C210" t="s">
+        <v>267</v>
+      </c>
+      <c r="D210" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+      <c r="B211" t="s">
+        <v>511</v>
+      </c>
+      <c r="C211" t="s">
+        <v>312</v>
+      </c>
+      <c r="D211" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+      <c r="B212" t="s">
+        <v>511</v>
+      </c>
+      <c r="C212" t="s">
+        <v>510</v>
+      </c>
+      <c r="D212" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
+      <c r="B213" t="s">
+        <v>508</v>
+      </c>
+      <c r="C213" t="s">
+        <v>263</v>
+      </c>
+      <c r="D213" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
+      <c r="B214" t="s">
+        <v>507</v>
+      </c>
+      <c r="C214" t="s">
+        <v>277</v>
+      </c>
+      <c r="D214" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
+      <c r="B215" t="s">
+        <v>507</v>
+      </c>
+      <c r="C215" t="s">
+        <v>505</v>
+      </c>
+      <c r="D215" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+      <c r="B216" t="s">
+        <v>506</v>
+      </c>
+      <c r="C216" t="s">
+        <v>285</v>
+      </c>
+      <c r="D216" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+      <c r="B217" t="s">
+        <v>504</v>
+      </c>
+      <c r="C217" t="s">
+        <v>505</v>
+      </c>
+      <c r="D217" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
+      <c r="B218" t="s">
+        <v>502</v>
+      </c>
+      <c r="C218" t="s">
+        <v>312</v>
+      </c>
+      <c r="D218" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
+      <c r="B219" t="s">
+        <v>267</v>
+      </c>
+      <c r="C219" t="s">
+        <v>268</v>
+      </c>
+      <c r="D219" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>503</v>
+      </c>
+      <c r="B220" t="s">
+        <v>341</v>
+      </c>
+      <c r="C220" t="s">
+        <v>267</v>
+      </c>
+      <c r="D220" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>499</v>
+      </c>
+      <c r="B221" t="s">
+        <v>501</v>
+      </c>
+      <c r="C221" t="s">
+        <v>500</v>
+      </c>
+      <c r="D221" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
+      <c r="B222" t="s">
+        <v>267</v>
+      </c>
+      <c r="C222" t="s">
+        <v>455</v>
+      </c>
+      <c r="D222" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
+      <c r="B223" t="s">
+        <v>496</v>
+      </c>
+      <c r="C223" t="s">
+        <v>267</v>
+      </c>
+      <c r="D223" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>495</v>
+      </c>
+      <c r="B224" t="s">
+        <v>497</v>
+      </c>
+      <c r="C224" t="s">
+        <v>268</v>
+      </c>
+      <c r="D224" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
+      <c r="B225" t="s">
+        <v>498</v>
+      </c>
+      <c r="C225" t="s">
+        <v>267</v>
+      </c>
+      <c r="D225" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
+      <c r="B226" t="s">
+        <v>494</v>
+      </c>
+      <c r="C226" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
+      <c r="B227" t="s">
+        <v>489</v>
+      </c>
+      <c r="C227" t="s">
+        <v>277</v>
+      </c>
+      <c r="D227" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
+      <c r="B228" t="s">
+        <v>487</v>
+      </c>
+      <c r="C228" t="s">
+        <v>283</v>
+      </c>
+      <c r="D228" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
+      <c r="B229" t="s">
+        <v>486</v>
+      </c>
+      <c r="C229" t="s">
+        <v>267</v>
+      </c>
+      <c r="D229" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
+      <c r="B230" t="s">
+        <v>267</v>
+      </c>
+      <c r="C230" t="s">
+        <v>285</v>
+      </c>
+      <c r="D230" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
+      <c r="B231" t="s">
+        <v>484</v>
+      </c>
+      <c r="C231" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
+      <c r="B232" t="s">
+        <v>482</v>
+      </c>
+      <c r="C232" t="s">
+        <v>483</v>
+      </c>
+      <c r="D232" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
+      <c r="B233" t="s">
+        <v>480</v>
+      </c>
+      <c r="C233" t="s">
+        <v>481</v>
+      </c>
+      <c r="D233" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
+      <c r="B234" t="s">
+        <v>267</v>
+      </c>
+      <c r="C234" t="s">
+        <v>268</v>
+      </c>
+      <c r="D234" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
+      <c r="B235" t="s">
+        <v>478</v>
+      </c>
+      <c r="C235" t="s">
+        <v>479</v>
+      </c>
+      <c r="D235" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
+      <c r="B236" t="s">
+        <v>267</v>
+      </c>
+      <c r="C236" t="s">
+        <v>476</v>
+      </c>
+      <c r="D236" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
+      <c r="B237" t="s">
+        <v>313</v>
+      </c>
+      <c r="C237" t="s">
+        <v>288</v>
+      </c>
+      <c r="D237" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
+      <c r="B238" t="s">
+        <v>310</v>
+      </c>
+      <c r="C238" t="s">
+        <v>312</v>
+      </c>
+      <c r="D238" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
+      <c r="B239" t="s">
+        <v>309</v>
+      </c>
+      <c r="C239" t="s">
+        <v>312</v>
+      </c>
+      <c r="D239" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>229</v>
+      <c r="B240" t="s">
+        <v>296</v>
+      </c>
+      <c r="C240" t="s">
+        <v>311</v>
+      </c>
+      <c r="D240" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>230</v>
+        <v>219</v>
+      </c>
+      <c r="B241" t="s">
+        <v>267</v>
+      </c>
+      <c r="C241" t="s">
+        <v>267</v>
+      </c>
+      <c r="D241" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>231</v>
+        <v>220</v>
+      </c>
+      <c r="B242" t="s">
+        <v>267</v>
+      </c>
+      <c r="C242" t="s">
+        <v>282</v>
+      </c>
+      <c r="D242" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>232</v>
+        <v>221</v>
+      </c>
+      <c r="B243" t="s">
+        <v>305</v>
+      </c>
+      <c r="C243" t="s">
+        <v>306</v>
+      </c>
+      <c r="D243" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>233</v>
+        <v>222</v>
+      </c>
+      <c r="B244" t="s">
+        <v>304</v>
+      </c>
+      <c r="C244" t="s">
+        <v>267</v>
+      </c>
+      <c r="D244" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>234</v>
+        <v>223</v>
+      </c>
+      <c r="B245" t="s">
+        <v>303</v>
+      </c>
+      <c r="C245" t="s">
+        <v>299</v>
+      </c>
+      <c r="D245" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="B246" t="s">
-        <v>333</v>
+        <v>267</v>
       </c>
       <c r="C246" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="D246" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="B247" t="s">
-        <v>330</v>
+        <v>267</v>
       </c>
       <c r="C247" t="s">
-        <v>332</v>
+        <v>273</v>
       </c>
       <c r="D247" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="B248" t="s">
-        <v>329</v>
+        <v>267</v>
       </c>
       <c r="C248" t="s">
-        <v>332</v>
+        <v>268</v>
       </c>
       <c r="D248" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="B249" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="C249" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="D249" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="B250" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="C250" t="s">
         <v>287</v>
       </c>
       <c r="D250" t="s">
-        <v>327</v>
+        <v>289</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="B251" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="C251" t="s">
-        <v>302</v>
+        <v>268</v>
       </c>
       <c r="D251" t="s">
-        <v>328</v>
+        <v>289</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B252" t="s">
-        <v>325</v>
+        <v>294</v>
       </c>
       <c r="C252" t="s">
-        <v>326</v>
+        <v>286</v>
       </c>
       <c r="D252" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="B253" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
       <c r="C253" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="D253" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="B254" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="C254" t="s">
-        <v>319</v>
+        <v>272</v>
       </c>
       <c r="D254" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="B255" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="C255" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="D255" t="s">
-        <v>322</v>
+        <v>267</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="B256" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="C256" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="D256" t="s">
-        <v>321</v>
+        <v>267</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="B257" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="C257" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D257" t="s">
-        <v>320</v>
+        <v>267</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="B258" t="s">
-        <v>312</v>
+        <v>267</v>
       </c>
       <c r="C258" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="D258" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="B259" t="s">
-        <v>313</v>
+        <v>262</v>
       </c>
       <c r="C259" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c r="D259" t="s">
-        <v>309</v>
+        <v>267</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="B260" t="s">
-        <v>313</v>
+        <v>261</v>
       </c>
       <c r="C260" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="D260" t="s">
-        <v>309</v>
+        <v>267</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="B261" t="s">
-        <v>314</v>
+        <v>260</v>
       </c>
       <c r="C261" t="s">
-        <v>306</v>
+        <v>281</v>
       </c>
       <c r="D261" t="s">
-        <v>310</v>
+        <v>279</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="B262" t="s">
-        <v>315</v>
+        <v>259</v>
       </c>
       <c r="C262" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D262" t="s">
-        <v>311</v>
+        <v>278</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="B263" t="s">
-        <v>316</v>
+        <v>258</v>
       </c>
       <c r="C263" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="D263" t="s">
-        <v>311</v>
+        <v>265</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="B264" t="s">
-        <v>317</v>
+        <v>258</v>
       </c>
       <c r="C264" t="s">
-        <v>305</v>
+        <v>273</v>
       </c>
       <c r="D264" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="B265" t="s">
-        <v>318</v>
+        <v>257</v>
       </c>
       <c r="C265" t="s">
-        <v>304</v>
+        <v>273</v>
       </c>
       <c r="D265" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
+        <v>256</v>
+      </c>
+      <c r="B266" t="s">
         <v>255</v>
       </c>
-      <c r="B266" t="s">
-        <v>287</v>
-      </c>
       <c r="C266" t="s">
-        <v>303</v>
-      </c>
-      <c r="D266" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="B267" t="s">
-        <v>287</v>
+        <v>254</v>
       </c>
       <c r="C267" t="s">
-        <v>302</v>
-      </c>
-      <c r="D267" t="s">
-        <v>300</v>
+        <v>271</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B268" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="C268" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="D268" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B269" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="C269" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="D269" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="B270" t="s">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="C270" t="s">
-        <v>301</v>
+        <v>267</v>
       </c>
       <c r="D270" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="B271" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="C271" t="s">
-        <v>297</v>
+        <v>266</v>
       </c>
       <c r="D271" t="s">
-        <v>298</v>
+        <v>265</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="B272" t="s">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="C272" t="s">
-        <v>294</v>
+        <v>263</v>
       </c>
       <c r="D272" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
-        <v>261</v>
-      </c>
-      <c r="B273" t="s">
-        <v>278</v>
-      </c>
-      <c r="C273" t="s">
-        <v>293</v>
-      </c>
-      <c r="D273" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
-        <v>262</v>
-      </c>
-      <c r="B274" t="s">
-        <v>277</v>
-      </c>
-      <c r="C274" t="s">
-        <v>293</v>
-      </c>
-      <c r="D274" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
-        <v>276</v>
-      </c>
-      <c r="B275" t="s">
-        <v>275</v>
-      </c>
-      <c r="C275" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
-        <v>263</v>
-      </c>
-      <c r="B276" t="s">
-        <v>274</v>
-      </c>
-      <c r="C276" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
-        <v>272</v>
-      </c>
-      <c r="B277" t="s">
-        <v>273</v>
-      </c>
-      <c r="C277" t="s">
-        <v>288</v>
-      </c>
-      <c r="D277" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
         <v>264</v>
       </c>
-      <c r="B278" t="s">
-        <v>271</v>
-      </c>
-      <c r="C278" t="s">
-        <v>288</v>
-      </c>
-      <c r="D278" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
-        <v>265</v>
-      </c>
-      <c r="B279" t="s">
-        <v>270</v>
-      </c>
-      <c r="C279" t="s">
-        <v>287</v>
-      </c>
-      <c r="D279" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
-        <v>266</v>
-      </c>
-      <c r="B280" t="s">
-        <v>269</v>
-      </c>
-      <c r="C280" t="s">
-        <v>286</v>
-      </c>
-      <c r="D280" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
-        <v>267</v>
-      </c>
-      <c r="B281" t="s">
-        <v>268</v>
-      </c>
-      <c r="C281" t="s">
-        <v>283</v>
-      </c>
-      <c r="D281" t="s">
-        <v>284</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A278:B281">
+  <conditionalFormatting sqref="A269:B272">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
